--- a/forwardList.xlsx
+++ b/forwardList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Дом\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C51D7E-97A5-4876-91F1-3DF3C4F9BDB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33AC2B9-714F-4796-BBF8-5F188D182ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{09DFE5AC-533C-4EB0-8698-EB92EAE96520}"/>
   </bookViews>
@@ -28,6 +28,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>№ телефона</t>
+  </si>
+  <si>
+    <t>№ переадресации</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,55 +396,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C833A4B5-A903-43A4-BC59-D780ABB9BFF0}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>6709494</v>
-      </c>
-      <c r="B1">
-        <v>81076709497</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>6709494</v>
+      </c>
+      <c r="B2">
+        <v>8126709497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>6709499</v>
       </c>
-      <c r="B2">
-        <v>81076709499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B3">
+        <v>9216709499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>6709600</v>
       </c>
-      <c r="B3" s="1">
-        <v>81076709699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>6709900</v>
-      </c>
-      <c r="B4">
-        <v>81076709927</v>
+      <c r="B4" s="1">
+        <v>9536709699</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>6709900</v>
+      </c>
+      <c r="B5">
+        <v>8126709927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>6709930</v>
       </c>
-      <c r="B5">
-        <v>81076709938</v>
+      <c r="B6">
+        <v>9156709938</v>
       </c>
     </row>
   </sheetData>
